--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Test case name</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Payment_Flow</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
     <t>Guest_USD</t>
   </si>
   <si>
@@ -73,19 +79,10 @@
     <t>4766944332216006</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Card Examples</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1mOg9ThqTDcqf1ea-Zi5Dh20ZAVlsaASsIK7xd4kk5jA/edit?gid=922368903#gid=922368903</t>
-  </si>
-  <si>
-    <t>Pr id examples</t>
-  </si>
-  <si>
-    <t>Pr type examples</t>
+    <t>HOSTED_CHECKOUT</t>
+  </si>
+  <si>
+    <t>MXN</t>
   </si>
 </sst>
 </file>
@@ -116,7 +113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -212,16 +209,16 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -532,7 +529,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -563,165 +560,179 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7">
+        <v>4766944332216006</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8">
+        <v>150</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B7" s="7">
+        <v>4766944332216006</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9">
+        <v>510</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="B8" s="7">
+        <v>4766944332216006</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8">
+        <v>400</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
+      <c r="B9" s="7">
+        <v>4766944332216006</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="3" t="s">
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
